--- a/test/004.xlsx
+++ b/test/004.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="11835"/>
+    <workbookView xWindow="11140" yWindow="5860" windowWidth="15520" windowHeight="11840"/>
   </bookViews>
   <sheets>
     <sheet name="4关(限次关卡29次)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -40,9 +43,6 @@
   </si>
   <si>
     <t>key4</t>
-  </si>
-  <si>
-    <t>key5</t>
   </si>
   <si>
     <t>key6</t>
@@ -62,13 +62,29 @@
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>key5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number-yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string-yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number-no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +208,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -556,20 +572,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="8.83203125" style="5"/>
     <col min="2" max="11" width="5.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -621,25 +637,25 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,31 +671,31 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15">
+    </row>
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>4</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="C4" s="7">
         <v>5</v>
@@ -693,9 +709,7 @@
       <c r="F4" s="7">
         <v>5</v>
       </c>
-      <c r="G4" s="7">
-        <v>3</v>
-      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="7">
         <v>6</v>
       </c>
@@ -709,7 +723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15">
+    <row r="5" spans="1:13" ht="16">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -744,7 +758,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15">
+    <row r="6" spans="1:13" ht="16">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -779,7 +793,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15">
+    <row r="7" spans="1:13" ht="16">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -814,7 +828,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15">
+    <row r="8" spans="1:13" ht="16">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -849,7 +863,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15">
+    <row r="9" spans="1:13" ht="16">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -884,7 +898,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15">
+    <row r="10" spans="1:13" ht="16">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -919,7 +933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15">
+    <row r="11" spans="1:13" ht="16">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -954,7 +968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13" ht="16">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -989,7 +1003,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15">
+    <row r="13" spans="1:13" ht="16">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1024,7 +1038,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15">
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1059,7 +1073,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15">
+    <row r="15" spans="1:13" ht="16">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1094,7 +1108,7 @@
         <v>-1</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1143,9 +1157,9 @@
     </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -1153,5 +1167,10 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/test/004.xlsx
+++ b/test/004.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="5860" windowWidth="15520" windowHeight="11840"/>
+    <workbookView xWindow="19740" yWindow="8120" windowWidth="15520" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="4关(限次关卡29次)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>number-yes</t>
-  </si>
-  <si>
-    <t>key1</t>
   </si>
   <si>
     <t>key2</t>
@@ -77,6 +74,22 @@
   </si>
   <si>
     <t>number-no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number-yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number-yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>key1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,13 +589,17 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="5"/>
-    <col min="2" max="11" width="5.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="6" customWidth="1"/>
+    <col min="6" max="11" width="5.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="16">
@@ -625,31 +642,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>2</v>
@@ -657,37 +674,37 @@
     </row>
     <row r="3" spans="1:13" ht="16">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16">
@@ -1108,7 +1125,7 @@
         <v>-1</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
